--- a/src/test/test-data/GroupsTestData.xlsx
+++ b/src/test/test-data/GroupsTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t>API</t>
   </si>
@@ -49,9 +49,6 @@
     <t>STORE</t>
   </si>
   <si>
-    <t>S1_TC_T1</t>
-  </si>
-  <si>
     <t>DEPENDENCYTESTS</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>S1_TC_T2</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -82,21 +76,9 @@
     <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating group for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f"}</t>
   </si>
   <si>
-    <t>S1_TC_T3</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t>S1_TC_T4</t>
-  </si>
-  <si>
-    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(S1_TC_T1_group)"}</t>
-  </si>
-  <si>
-    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group with other sub group is parent for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(S1_TC_T3_group)"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user is able to create new group. </t>
   </si>
   <si>
@@ -109,15 +91,6 @@
     <t>Verify that a subgroup cannot be a parent of a subgroup.</t>
   </si>
   <si>
-    <t>Verify  that owner is able to add users into group and able to assign permissions like ADMIN,MODIFY,READ</t>
-  </si>
-  <si>
-    <t>S1_TC_T5</t>
-  </si>
-  <si>
-    <t>/groups/(S1_TC_T1_group)/members</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -127,21 +100,9 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>S1_TC_T6</t>
-  </si>
-  <si>
-    <t>S1_TC_T7</t>
-  </si>
-  <si>
-    <t>Verify  that ADMIN user is able to add users into group and able to assign permissions like ADMIN,MODIFY,READ</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER2)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>Verify  that normal user(Who having READ permitions) is able to add users into group and able to assign permissions like ADMIN,MODIFY,READ</t>
-  </si>
-  <si>
     <t>Verify  that normal user is able to remove users from group.</t>
   </si>
   <si>
@@ -151,30 +112,12 @@
     <t>status=403</t>
   </si>
   <si>
-    <t>S1_TC_T8</t>
-  </si>
-  <si>
-    <t>S1_TC_T9</t>
-  </si>
-  <si>
-    <t>S1_TC_T10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that owner is able to modify group name </t>
   </si>
   <si>
     <t>status=200||name=1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER</t>
   </si>
   <si>
-    <t>/groups/(S1_TC_T1_group)</t>
-  </si>
-  <si>
-    <t>S1_TC_T11</t>
-  </si>
-  <si>
-    <t>S1_TC_T12</t>
-  </si>
-  <si>
     <t>status=200||name=1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN</t>
   </si>
   <si>
@@ -199,69 +142,18 @@
     <t>Verify that owner is able to modify group Details</t>
   </si>
   <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER"}</t>
-  </si>
-  <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN"}</t>
-  </si>
-  <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_NORMALUSER"}</t>
-  </si>
-  <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER","capacity":10,"description":"Updating group for Automation testing"}</t>
-  </si>
-  <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN","capacity":10,"description":"Updating group for Automation testing"}</t>
-  </si>
-  <si>
     <t>Verify that admin user is able to modify group Details</t>
   </si>
   <si>
-    <t>S1_TC_T13</t>
-  </si>
-  <si>
-    <t>S1_TC_T14</t>
-  </si>
-  <si>
-    <t>S1_TC_T15</t>
-  </si>
-  <si>
-    <t>S1_TC_T16</t>
-  </si>
-  <si>
-    <t>S1_TC_T17</t>
-  </si>
-  <si>
-    <t>{"group":"(S1_TC_T1_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_READ","capacity":10,"description":"Updating group for Automation testing"}</t>
-  </si>
-  <si>
-    <t>Verify that usaer able to get total members from group</t>
-  </si>
-  <si>
-    <t>status=200||group=(S1_TC_T1_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)||members.uid=(SYS_USER3)</t>
-  </si>
-  <si>
     <t>Verify that get users based on the role.</t>
   </si>
   <si>
     <t>?role=ADMIN</t>
   </si>
   <si>
-    <t>S1_TC_T18</t>
-  </si>
-  <si>
     <t>Verify that normal user is able to delete group</t>
   </si>
   <si>
-    <t>S1_TC_T19</t>
-  </si>
-  <si>
-    <t>S1_TC_T20</t>
-  </si>
-  <si>
-    <t>S1_TC_T21</t>
-  </si>
-  <si>
     <t>Verify  that admin user is able to remove users from group.</t>
   </si>
   <si>
@@ -271,10 +163,121 @@
     <t>Verify that owner is able to delete group</t>
   </si>
   <si>
-    <t>status=200||group=(S1_TC_T1_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>status=200||group=(S1_TC_T1_group)||members.uid=(SYS_USER1)||members.role=ADMIN||members.owner=true</t>
+    <t>OPQA-532</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.role=ADMIN||members.owner=true</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)||members.uid=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER"}</t>
+  </si>
+  <si>
+    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(OPQA-532_group)"}</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN"}</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_NORMALUSER"}</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER","capacity":10,"description":"Updating group for Automation testing"}</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN","capacity":10,"description":"Updating group for Automation testing"}</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_READ","capacity":10,"description":"Updating group for Automation testing"}</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-532_group)</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-532_group)/members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-635 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-637 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-638 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-639 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-643 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPQA-644 </t>
+  </si>
+  <si>
+    <t>Verify  that owner is able to add users into group and able to assign permissions like ADMIN,READ</t>
+  </si>
+  <si>
+    <t>Verify  that ADMIN user is able to add users into group and able to assign permissions like ADMIN,READ</t>
+  </si>
+  <si>
+    <t>Verify  that normal user(Who having READ permitions) is able to add users into group and able to assign permissions like ADMIN,READ</t>
+  </si>
+  <si>
+    <t>OPQA-636</t>
+  </si>
+  <si>
+    <t>OPQA-641</t>
+  </si>
+  <si>
+    <t>Verify that to get total members from group</t>
+  </si>
+  <si>
+    <t>OPQA-647</t>
+  </si>
+  <si>
+    <t>OPQA-649</t>
+  </si>
+  <si>
+    <t>OPQA-715</t>
+  </si>
+  <si>
+    <t>OPQA-716</t>
+  </si>
+  <si>
+    <t>OPQA-717</t>
+  </si>
+  <si>
+    <t>OPQA-718</t>
+  </si>
+  <si>
+    <t>Verify that normal user is able to modify group Details</t>
+  </si>
+  <si>
+    <t>OPQA-719</t>
+  </si>
+  <si>
+    <t>OPQA-642</t>
+  </si>
+  <si>
+    <t>OPQA-720</t>
+  </si>
+  <si>
+    <t>OPQA-721</t>
+  </si>
+  <si>
+    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group with other sub group is parent for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(OPQA-634_group)"}</t>
+  </si>
+  <si>
+    <t>OPQA-634</t>
   </si>
 </sst>
 </file>
@@ -652,13 +655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="L22" sqref="L2:L22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -698,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -712,635 +715,672 @@
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="90">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-534"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-634"/>
+    <hyperlink ref="I5" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-634"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-635"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="I7" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="I8" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I9" r:id="rId9" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I10" r:id="rId10" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I12" r:id="rId11" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I13" r:id="rId12" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I15" r:id="rId13" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I16" r:id="rId14" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I17" r:id="rId15" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I18" r:id="rId16" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I19" r:id="rId17" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I20" r:id="rId18" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I21" r:id="rId19" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I22" r:id="rId20" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="A9" r:id="rId21" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-639"/>
+    <hyperlink ref="A7" r:id="rId22" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-643"/>
+    <hyperlink ref="A20" r:id="rId23" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-644"/>
+    <hyperlink ref="A10" r:id="rId24" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-636"/>
+    <hyperlink ref="A11" r:id="rId25" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-641"/>
+    <hyperlink ref="A17" r:id="rId26" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-647"/>
+    <hyperlink ref="A18" r:id="rId27" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-649"/>
+    <hyperlink ref="A12" r:id="rId28" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-715"/>
+    <hyperlink ref="A13" r:id="rId29" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-716"/>
+    <hyperlink ref="A14" r:id="rId30" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-717"/>
+    <hyperlink ref="A15" r:id="rId31" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-718"/>
+    <hyperlink ref="A16" r:id="rId32" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-719"/>
+    <hyperlink ref="A22" r:id="rId33" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-642"/>
+    <hyperlink ref="A21" r:id="rId34" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-720"/>
+    <hyperlink ref="A19" r:id="rId35" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-721"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/src/test/test-data/GroupsTestData.xlsx
+++ b/src/test/test-data/GroupsTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>API</t>
   </si>
@@ -73,60 +73,24 @@
     <t>X-1P-User=(SYS_USER1)</t>
   </si>
   <si>
-    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating group for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f"}</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to create new group. </t>
-  </si>
-  <si>
-    <t>Verify that group owner permissions should be admin</t>
-  </si>
-  <si>
-    <t>Verify that user is able to create a sub group</t>
-  </si>
-  <si>
-    <t>Verify that a subgroup cannot be a parent of a subgroup.</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>Verify  that owner is able to remove users from group.</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>X-1P-User=(SYS_USER2)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>Verify  that normal user is able to remove users from group.</t>
-  </si>
-  <si>
     <t>X-1P-User=62bf1260-835b-11e5-b703-95dae2bf8e21||Content-Type=application/json</t>
   </si>
   <si>
     <t>status=403</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that owner is able to modify group name </t>
-  </si>
-  <si>
-    <t>status=200||name=1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER</t>
-  </si>
-  <si>
-    <t>status=200||name=1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that admin user is able to modify group name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that normal user is able to modify group name </t>
-  </si>
-  <si>
     <t>[{"uid":"(SYS_USER2)", "role":"ADMIN"},{"uid":"(SYS_USER3)", "role":"READ"}]</t>
   </si>
   <si>
@@ -139,60 +103,18 @@
     <t>?id=(SYS_USER2)</t>
   </si>
   <si>
-    <t>Verify that owner is able to modify group Details</t>
-  </si>
-  <si>
-    <t>Verify that admin user is able to modify group Details</t>
-  </si>
-  <si>
-    <t>Verify that get users based on the role.</t>
-  </si>
-  <si>
     <t>?role=ADMIN</t>
   </si>
   <si>
-    <t>Verify that normal user is able to delete group</t>
-  </si>
-  <si>
-    <t>Verify  that admin user is able to remove users from group.</t>
-  </si>
-  <si>
-    <t>Verify that admin user is able to delete group</t>
-  </si>
-  <si>
-    <t>Verify that owner is able to delete group</t>
-  </si>
-  <si>
     <t>OPQA-532</t>
   </si>
   <si>
     <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.role=ADMIN||members.owner=true</t>
   </si>
   <si>
-    <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)||members.uid=(SYS_USER3)</t>
-  </si>
-  <si>
-    <t>status=200||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER"}</t>
-  </si>
-  <si>
-    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(OPQA-532_group)"}</t>
-  </si>
-  <si>
-    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN"}</t>
-  </si>
-  <si>
     <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_NORMALUSER"}</t>
   </si>
   <si>
-    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_OWNER","capacity":10,"description":"Updating group for Automation testing"}</t>
-  </si>
-  <si>
-    <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_ADMIN","capacity":10,"description":"Updating group for Automation testing"}</t>
-  </si>
-  <si>
     <t>{"group":"(OPQA-532_group)","name":"1P_GROUP_AUTOMATION_TEST_GROUP_UPDATED_BY_READ","capacity":10,"description":"Updating group for Automation testing"}</t>
   </si>
   <si>
@@ -205,9 +127,6 @@
     <t xml:space="preserve">OPQA-534 </t>
   </si>
   <si>
-    <t xml:space="preserve">OPQA-635 </t>
-  </si>
-  <si>
     <t xml:space="preserve">OPQA-637 </t>
   </si>
   <si>
@@ -223,24 +142,12 @@
     <t xml:space="preserve">OPQA-644 </t>
   </si>
   <si>
-    <t>Verify  that owner is able to add users into group and able to assign permissions like ADMIN,READ</t>
-  </si>
-  <si>
-    <t>Verify  that ADMIN user is able to add users into group and able to assign permissions like ADMIN,READ</t>
-  </si>
-  <si>
-    <t>Verify  that normal user(Who having READ permitions) is able to add users into group and able to assign permissions like ADMIN,READ</t>
-  </si>
-  <si>
     <t>OPQA-636</t>
   </si>
   <si>
     <t>OPQA-641</t>
   </si>
   <si>
-    <t>Verify that to get total members from group</t>
-  </si>
-  <si>
     <t>OPQA-647</t>
   </si>
   <si>
@@ -259,9 +166,6 @@
     <t>OPQA-718</t>
   </si>
   <si>
-    <t>Verify that normal user is able to modify group Details</t>
-  </si>
-  <si>
     <t>OPQA-719</t>
   </si>
   <si>
@@ -274,10 +178,139 @@
     <t>OPQA-721</t>
   </si>
   <si>
-    <t>{"name":"1P_GROUP_AUTOMATION_TEST_GROUP","capacity":2,"description":"Creating sub group with other sub group is parent for API Automation testing","tag":"ca46ad76-72df-11e5-8bcf-feff819cdc9f", "parent" : "(OPQA-634_group)"}</t>
-  </si>
-  <si>
     <t>OPQA-634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to create new group using GROUPS API. </t>
+  </si>
+  <si>
+    <t>Verify that default group owner role is admin after creating the group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a sub group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{ "name":"Create Group test using 1PGROUPS API", "capacity":4, "description":"Creating a group by Project Neon1 using API Automation script" }</t>
+  </si>
+  <si>
+    <t>{ "name":"Create Sub Group test using 1PGROUPS API", "capacity":3, "description":"Creating a sub group by Project Neon1 using API Automation script", "parent" : "(OPQA-532_group)" }</t>
+  </si>
+  <si>
+    <t>status=200||name=Create Sub Group test using 1PGROUPS API||description=Creating a sub group by Project Neon1 using API Automation script||capacity=3||numMembers=0||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify that a sub sub group (sub group can be a parent of a subgroup) can be created using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{ "name":"Create Sub Group for a sub group using 1PGROUPS API", "capacity":3, "description":"Creating a sub sub group i.e parent as a sub group by Project Neon1 using API Automation script", "parent" : "(OPQA-634_group)" }</t>
+  </si>
+  <si>
+    <t>status=200||name=Create Sub Group for a sub group using 1PGROUPS API||description=Creating a sub sub group i.e parent as a sub group by Project Neon1 using API Automation script||capacity=3||numMembers=0||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify  that owner is able to add users into group and able to assign permissions like ADMIN,READ using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify  that owner is able to remove users from group using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify  that ADMIN user is able to add users into group and able to assign permissions like ADMIN,READ using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify  that normal user(Who is having READ permissions) is not able to add users into group and not able to assign permissions like ADMIN,READ using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify  that normal user is not able to remove users from group and check the error status using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that owner is able to modify group name using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"Update GROUP title by Owner"}</t>
+  </si>
+  <si>
+    <t>status=200||name=Update GROUP title by Owner||group=(OPQA-532_group)||capacity=4||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify that admin user is able to modify group name using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"Update GROUP title by Admin"}</t>
+  </si>
+  <si>
+    <t>status=200||name=Update GROUP title by Admin||group=(OPQA-532_group)||capacity=4||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify that normal user is not able to modify group name and check the error status using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"Update GROUP title by Owner","capacity":10,"description":"Updating group details by owner using API Automation script"}</t>
+  </si>
+  <si>
+    <t>Verify that owner is able to modify group Details by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that admin user is able to modify group Details by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>{"group":"(OPQA-532_group)","name":"Update GROUP title by Admin","capacity":10,"description":"Updating group details by admin using API Automation script"}</t>
+  </si>
+  <si>
+    <t>Verify that normal user is not able to modify group Details and check the error status by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that total members details are returned properly for a group using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that GROUPS API returns list of users based on the role properly.</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-532_group)||size=10||numMembers=0||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)||members[0].role=ADMIN||members[1].role=ADMIN</t>
+  </si>
+  <si>
+    <t>Verify that normal user is not able to delete group and check the error status by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify  that admin user is able to remove members from group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that admin user is not able to delete the group  and check the error status by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that owner is able to delete the group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-634_group)</t>
+  </si>
+  <si>
+    <t>OPQA-635</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-635_group)</t>
+  </si>
+  <si>
+    <t>status=200||name=Create Group test using 1PGROUPS API||description=Creating a group by Project Neon1 using API Automation script||capacity=4||numMembers=0||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>status=200||name=Update GROUP title by Owner||group=(OPQA-532_group)||description=Updating group details by owner using API Automation script||capacity=4||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>status=200||name=Update GROUP title by Admin||group=(OPQA-532_group)||description=Updating group details by admin using API Automation script||capacity=4||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>status=200||size=10||numMembers=3||group=(OPQA-532_group)||members.uid=(SYS_USER1)||members.uid=(SYS_USER2)||members.uid=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>Verify that owner is able to delete the sub group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>Verify that owner is able to delete the sub sub group by using GROUPS API.</t>
+  </si>
+  <si>
+    <t>OPQA-4126</t>
+  </si>
+  <si>
+    <t>OPQA-4127</t>
   </si>
 </sst>
 </file>
@@ -653,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -713,12 +746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -734,11 +767,11 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>16</v>
@@ -746,16 +779,16 @@
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -766,19 +799,19 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="90">
-      <c r="A4" s="5" t="s">
-        <v>87</v>
+    <row r="4" spans="1:12" ht="75">
+      <c r="A4" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -794,24 +827,24 @@
       </c>
       <c r="G4"/>
       <c r="H4" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="105">
-      <c r="A5" s="5" t="s">
-        <v>63</v>
+    <row r="5" spans="1:12" ht="90">
+      <c r="A5" t="s">
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -827,13 +860,13 @@
       </c>
       <c r="G5"/>
       <c r="H5" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>16</v>
@@ -841,346 +874,346 @@
     </row>
     <row r="6" spans="1:12" ht="45">
       <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="5" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90">
+      <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="75">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="4" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -1191,25 +1224,25 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="45">
+    <row r="18" spans="1:11" ht="60">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -1218,117 +1251,117 @@
         <v>18</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1336,51 +1369,105 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-534"/>
-    <hyperlink ref="A4" r:id="rId2" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-634"/>
-    <hyperlink ref="I5" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-634"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-635"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
-    <hyperlink ref="I7" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
-    <hyperlink ref="I8" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I9" r:id="rId9" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I10" r:id="rId10" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I12" r:id="rId11" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I13" r:id="rId12" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I15" r:id="rId13" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I16" r:id="rId14" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I17" r:id="rId15" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I18" r:id="rId16" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I19" r:id="rId17" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I20" r:id="rId18" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I21" r:id="rId19" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="I22" r:id="rId20" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
-    <hyperlink ref="A9" r:id="rId21" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-639"/>
-    <hyperlink ref="A7" r:id="rId22" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-643"/>
-    <hyperlink ref="A20" r:id="rId23" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-644"/>
-    <hyperlink ref="A10" r:id="rId24" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-636"/>
-    <hyperlink ref="A11" r:id="rId25" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-641"/>
-    <hyperlink ref="A17" r:id="rId26" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-647"/>
-    <hyperlink ref="A18" r:id="rId27" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-649"/>
-    <hyperlink ref="A12" r:id="rId28" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-715"/>
-    <hyperlink ref="A13" r:id="rId29" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-716"/>
-    <hyperlink ref="A14" r:id="rId30" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-717"/>
-    <hyperlink ref="A15" r:id="rId31" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-718"/>
-    <hyperlink ref="A16" r:id="rId32" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-719"/>
-    <hyperlink ref="A22" r:id="rId33" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-642"/>
-    <hyperlink ref="A21" r:id="rId34" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-720"/>
-    <hyperlink ref="A19" r:id="rId35" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-721"/>
+    <hyperlink ref="A6" r:id="rId2" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="I7" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="I8" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-637"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I9" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I10" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I12" r:id="rId8" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I13" r:id="rId9" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I15" r:id="rId10" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I16" r:id="rId11" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I17" r:id="rId12" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I18" r:id="rId13" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I19" r:id="rId14" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I20" r:id="rId15" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I21" r:id="rId16" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="I22" r:id="rId17" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-638"/>
+    <hyperlink ref="A9" r:id="rId18" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-639"/>
+    <hyperlink ref="A7" r:id="rId19" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-643"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-644"/>
+    <hyperlink ref="A10" r:id="rId21" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-636"/>
+    <hyperlink ref="A11" r:id="rId22" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-641"/>
+    <hyperlink ref="A17" r:id="rId23" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-647"/>
+    <hyperlink ref="A18" r:id="rId24" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-649"/>
+    <hyperlink ref="A12" r:id="rId25" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-715"/>
+    <hyperlink ref="A13" r:id="rId26" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-716"/>
+    <hyperlink ref="A14" r:id="rId27" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-717"/>
+    <hyperlink ref="A15" r:id="rId28" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-718"/>
+    <hyperlink ref="A16" r:id="rId29" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-719"/>
+    <hyperlink ref="A22" r:id="rId30" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-642"/>
+    <hyperlink ref="A21" r:id="rId31" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-720"/>
+    <hyperlink ref="A19" r:id="rId32" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-721"/>
+    <hyperlink ref="I5" r:id="rId33" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-634"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>